--- a/genshin/430304192045164014_2020-09-02_14-00-02.xlsx
+++ b/genshin/430304192045164014_2020-09-02_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:58:58</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44076.83261574074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:42:24</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44076.82111111111</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -685,10 +697,8 @@
           <t>3446541564</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:43:34</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44076.69692129629</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:40:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44076.6950462963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:20:27</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44076.68086805556</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:27:07</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44076.64383101852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:24:54</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44076.64229166666</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -1045,10 +1047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:17:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44076.63703703704</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1124,10 +1124,8 @@
           <t>3446273655</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:03:23</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44076.62734953704</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1199,10 +1197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:54:50</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44076.62141203704</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1270,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:54:18</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44076.62104166667</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1337,10 +1331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:53:37</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44076.62056712963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1404,10 +1396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44076.61862268519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1483,10 +1473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:33:26</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44076.60655092593</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1550,10 +1538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:33:01</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44076.60626157407</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1625,10 +1611,8 @@
           <t>3446181110</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:24:09</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44076.60010416667</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1704,10 +1688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:23:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44076.59976851852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1775,10 +1757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:23:02</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44076.59932870371</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1846,10 +1826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44076.59138888889</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1917,10 +1895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:10:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44076.59050925926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1993,10 +1969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:18</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44076.58979166667</v>
       </c>
       <c r="I22" t="n">
         <v>28</v>
@@ -2064,10 +2038,8 @@
           <t>3446135409</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:13</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44076.5897337963</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2131,10 +2103,8 @@
           <t>3446133675</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:08:20</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44076.58912037037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2202,10 +2172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:47</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44076.58804398148</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2281,10 +2249,8 @@
           <t>3446135409</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44076.58733796296</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2352,10 +2318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:31</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44076.58716435185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2424,10 +2388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44076.586875</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2495,10 +2457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:04:11</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44076.58623842592</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2570,10 +2530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:58</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44076.58608796296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2649,10 +2607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:42</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44076.58590277778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2720,10 +2676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:00</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44076.58541666667</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2791,10 +2745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:20</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44076.58425925926</v>
       </c>
       <c r="I33" t="n">
         <v>41</v>
@@ -2858,10 +2810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:12</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44076.58416666667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2925,10 +2875,8 @@
           <t>3446112736</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44076.58407407408</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3004,10 +2952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:39</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44076.58378472222</v>
       </c>
       <c r="I36" t="n">
         <v>47</v>
